--- a/青马易战_10.xlsx
+++ b/青马易战_10.xlsx
@@ -1059,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1929"/>
+  <dimension ref="A1:D1933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43512,6 +43512,94 @@
         </is>
       </c>
     </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>推翻封建君主专制制度，建立资产阶级民主共和国，这是（）的内容</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 民族主义  B. 民权主义  C. 民生主义  D. 新民主主义 </t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>B.民权主义</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>1945年4月，出席联合国制宪会议中国代表团中的解放区代表是（）</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 周恩来  B. 刘少奇  C. 董必武  D. 王若飞 </t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>中共十三大明确将党在社会主义初级阶段的基本路线概括为</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 一个中心、两个基本点  B. 四个坚持  C. 一手抓物质文明、一手抓精神文明  D. 建设中国特色社会主义经济、政治和文化 </t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>1938年毛泽东发表《论持久战》驳斥了（），为人民指出抗战的正确道路。</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 亡国论和速胜论  B. 保存实力，等待胜利论  C. 曲线救国论  D. 避战论和保存实力论 </t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>A.“亡国论”和“速胜论”</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
